--- a/db and notes/main data sheet.xlsx
+++ b/db and notes/main data sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15560" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="23-5, 15.40, kolpetty" sheetId="1" r:id="rId1"/>
@@ -736,11 +736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121104248"/>
-        <c:axId val="2121107224"/>
+        <c:axId val="2129662456"/>
+        <c:axId val="2094710680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121104248"/>
+        <c:axId val="2129662456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121107224"/>
+        <c:crossAx val="2094710680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121107224"/>
+        <c:axId val="2094710680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121104248"/>
+        <c:crossAx val="2129662456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,11 +978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2130915736"/>
-        <c:axId val="2130918680"/>
+        <c:axId val="2131280680"/>
+        <c:axId val="2131283624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130915736"/>
+        <c:axId val="2131280680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130918680"/>
+        <c:crossAx val="2131283624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130918680"/>
+        <c:axId val="2131283624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,13 +1010,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130915736"/>
+        <c:crossAx val="2131280680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1189,11 +1190,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121161992"/>
-        <c:axId val="2121164936"/>
+        <c:axId val="2130983640"/>
+        <c:axId val="2130989080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121161992"/>
+        <c:axId val="2130983640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121164936"/>
+        <c:crossAx val="2130989080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121164936"/>
+        <c:axId val="2130989080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121161992"/>
+        <c:crossAx val="2130983640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,11 +1439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121199912"/>
-        <c:axId val="2121202856"/>
+        <c:axId val="2131021784"/>
+        <c:axId val="2131024728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121199912"/>
+        <c:axId val="2131021784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121202856"/>
+        <c:crossAx val="2131024728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1459,7 +1460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121202856"/>
+        <c:axId val="2131024728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,13 +1471,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121199912"/>
+        <c:crossAx val="2131021784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1893,11 +1895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121241160"/>
-        <c:axId val="2121244136"/>
+        <c:axId val="2131060008"/>
+        <c:axId val="2131062984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121241160"/>
+        <c:axId val="2131060008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121244136"/>
+        <c:crossAx val="2131062984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1916,7 +1918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121244136"/>
+        <c:axId val="2131062984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,13 +1930,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121241160"/>
+        <c:crossAx val="2131060008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2360,11 +2363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120229832"/>
-        <c:axId val="2120226840"/>
+        <c:axId val="2131105736"/>
+        <c:axId val="2131108712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120229832"/>
+        <c:axId val="2131105736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120226840"/>
+        <c:crossAx val="2131108712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120226840"/>
+        <c:axId val="2131108712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,13 +2398,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120229832"/>
+        <c:crossAx val="2131105736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2573,11 +2577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2130767240"/>
-        <c:axId val="2130770184"/>
+        <c:axId val="2131132312"/>
+        <c:axId val="2131135256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130767240"/>
+        <c:axId val="2131132312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130770184"/>
+        <c:crossAx val="2131135256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130770184"/>
+        <c:axId val="2131135256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,13 +2609,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130767240"/>
+        <c:crossAx val="2131132312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3001,11 +3006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130815192"/>
-        <c:axId val="2130818168"/>
+        <c:axId val="2131179592"/>
+        <c:axId val="2131182568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130815192"/>
+        <c:axId val="2131179592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +3021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130818168"/>
+        <c:crossAx val="2131182568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3024,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130818168"/>
+        <c:axId val="2131182568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,13 +3041,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130815192"/>
+        <c:crossAx val="2131179592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3202,11 +3208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2130841384"/>
-        <c:axId val="2130844328"/>
+        <c:axId val="2131206392"/>
+        <c:axId val="2131209336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130841384"/>
+        <c:axId val="2131206392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,7 +3221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130844328"/>
+        <c:crossAx val="2131209336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3223,7 +3229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130844328"/>
+        <c:axId val="2131209336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,13 +3240,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130841384"/>
+        <c:crossAx val="2131206392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3630,11 +3637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130888920"/>
-        <c:axId val="2130891896"/>
+        <c:axId val="2131253464"/>
+        <c:axId val="2131256440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130888920"/>
+        <c:axId val="2131253464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,7 +3652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130891896"/>
+        <c:crossAx val="2131256440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3653,7 +3660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130891896"/>
+        <c:axId val="2131256440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,13 +3672,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130888920"/>
+        <c:crossAx val="2131253464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4301,9 +4309,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4880,7 +4888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5459,7 +5467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6038,7 +6046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6568,7 +6576,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/db and notes/main data sheet.xlsx
+++ b/db and notes/main data sheet.xlsx
@@ -736,11 +736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129662456"/>
-        <c:axId val="2094710680"/>
+        <c:axId val="2115623768"/>
+        <c:axId val="2114419256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129662456"/>
+        <c:axId val="2115623768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094710680"/>
+        <c:crossAx val="2114419256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094710680"/>
+        <c:axId val="2114419256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129662456"/>
+        <c:crossAx val="2115623768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,11 +978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131280680"/>
-        <c:axId val="2131283624"/>
+        <c:axId val="2115990200"/>
+        <c:axId val="2115993144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131280680"/>
+        <c:axId val="2115990200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131283624"/>
+        <c:crossAx val="2115993144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131283624"/>
+        <c:axId val="2115993144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,14 +1010,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131280680"/>
+        <c:crossAx val="2115990200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1190,11 +1189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2130983640"/>
-        <c:axId val="2130989080"/>
+        <c:axId val="2115684872"/>
+        <c:axId val="2115690312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130983640"/>
+        <c:axId val="2115684872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130989080"/>
+        <c:crossAx val="2115690312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1230,7 +1229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130989080"/>
+        <c:axId val="2115690312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130983640"/>
+        <c:crossAx val="2115684872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,11 +1438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131021784"/>
-        <c:axId val="2131024728"/>
+        <c:axId val="2115731352"/>
+        <c:axId val="2115734296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131021784"/>
+        <c:axId val="2115731352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131024728"/>
+        <c:crossAx val="2115734296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1460,7 +1459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131024728"/>
+        <c:axId val="2115734296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,14 +1470,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131021784"/>
+        <c:crossAx val="2115731352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1895,11 +1893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131060008"/>
-        <c:axId val="2131062984"/>
+        <c:axId val="2115769576"/>
+        <c:axId val="2115772552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131060008"/>
+        <c:axId val="2115769576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131062984"/>
+        <c:crossAx val="2115772552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,7 +1916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131062984"/>
+        <c:axId val="2115772552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,14 +1928,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131060008"/>
+        <c:crossAx val="2115769576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2363,11 +2360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131105736"/>
-        <c:axId val="2131108712"/>
+        <c:axId val="2115815304"/>
+        <c:axId val="2115818280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131105736"/>
+        <c:axId val="2115815304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131108712"/>
+        <c:crossAx val="2115818280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2386,7 +2383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131108712"/>
+        <c:axId val="2115818280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,14 +2395,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131105736"/>
+        <c:crossAx val="2115815304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2577,11 +2573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131132312"/>
-        <c:axId val="2131135256"/>
+        <c:axId val="2115841864"/>
+        <c:axId val="2115844808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131132312"/>
+        <c:axId val="2115841864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131135256"/>
+        <c:crossAx val="2115844808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131135256"/>
+        <c:axId val="2115844808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,14 +2605,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131132312"/>
+        <c:crossAx val="2115841864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3006,11 +3001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131179592"/>
-        <c:axId val="2131182568"/>
+        <c:axId val="2115889144"/>
+        <c:axId val="2115892120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131179592"/>
+        <c:axId val="2115889144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131182568"/>
+        <c:crossAx val="2115892120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3029,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131182568"/>
+        <c:axId val="2115892120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,14 +3036,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131179592"/>
+        <c:crossAx val="2115889144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3208,11 +3202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131206392"/>
-        <c:axId val="2131209336"/>
+        <c:axId val="2115915960"/>
+        <c:axId val="2115918904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131206392"/>
+        <c:axId val="2115915960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131209336"/>
+        <c:crossAx val="2115918904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3229,7 +3223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131209336"/>
+        <c:axId val="2115918904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3240,14 +3234,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131206392"/>
+        <c:crossAx val="2115915960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3637,11 +3630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131253464"/>
-        <c:axId val="2131256440"/>
+        <c:axId val="2115963016"/>
+        <c:axId val="2115965992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131253464"/>
+        <c:axId val="2115963016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,7 +3645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131256440"/>
+        <c:crossAx val="2115965992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3660,7 +3653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131256440"/>
+        <c:axId val="2115965992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,14 +3665,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131253464"/>
+        <c:crossAx val="2115963016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>

--- a/db and notes/main data sheet.xlsx
+++ b/db and notes/main data sheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webdev\Gaman\db and notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="23-5, 15.40, kolpetty" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="23-5, 16.28, rajagiriya" sheetId="2" r:id="rId4"/>
     <sheet name="23-5, 17.43, rajagiriya" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -156,6 +161,12 @@
   <si>
     <t>Galle Road</t>
   </si>
+  <si>
+    <t>Arrival Timestamp</t>
+  </si>
+  <si>
+    <t>Departure Timestamp</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -292,12 +303,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,55 +439,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,55 +566,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,55 +693,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,11 +758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115623768"/>
-        <c:axId val="2114419256"/>
+        <c:axId val="4072240"/>
+        <c:axId val="4071120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115623768"/>
+        <c:axId val="4072240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,10 +789,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114419256"/>
+        <c:crossAx val="4071120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114419256"/>
+        <c:axId val="4071120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115623768"/>
+        <c:crossAx val="4072240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,51 +942,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'23-5, 17.43, rajagiriya'!$H$6:$H$20</c:f>
+              <c:f>'23-5, 17.43, rajagiriya'!$J$6:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,20 +1001,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115990200"/>
-        <c:axId val="2115993144"/>
+        <c:axId val="175327856"/>
+        <c:axId val="175328416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115990200"/>
+        <c:axId val="175327856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115993144"/>
+        <c:crossAx val="175328416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +1023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115993144"/>
+        <c:axId val="175328416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,13 +1034,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115990200"/>
+        <c:crossAx val="175327856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1124,57 +1149,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'23-5, 15.40, kolpetty'!$H$6:$H$22</c:f>
+              <c:f>'23-5, 15.40, kolpetty'!$J$6:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,11 +1214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115684872"/>
-        <c:axId val="2115690312"/>
+        <c:axId val="174560096"/>
+        <c:axId val="174560656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115684872"/>
+        <c:axId val="174560096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,10 +1243,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115690312"/>
+        <c:crossAx val="174560656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115690312"/>
+        <c:axId val="174560656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115684872"/>
+        <c:crossAx val="174560096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,60 +1396,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'23-5, 17.00, kolpetty'!$H$6:$H$22</c:f>
+              <c:f>'23-5, 17.00, kolpetty'!$J$6:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,20 +1464,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115731352"/>
-        <c:axId val="2115734296"/>
+        <c:axId val="174562896"/>
+        <c:axId val="174563456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115731352"/>
+        <c:axId val="174562896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115734296"/>
+        <c:crossAx val="174563456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1459,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115734296"/>
+        <c:axId val="174563456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,13 +1497,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115731352"/>
+        <c:crossAx val="174562896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1580,55 +1608,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,55 +1732,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,55 +1856,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,11 +1921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115769576"/>
-        <c:axId val="2115772552"/>
+        <c:axId val="174718400"/>
+        <c:axId val="174718960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115769576"/>
+        <c:axId val="174718400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,10 +1933,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115772552"/>
+        <c:crossAx val="174718960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1916,7 +1945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115772552"/>
+        <c:axId val="174718960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,13 +1957,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115769576"/>
+        <c:crossAx val="174718400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2041,55 +2071,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,55 +2198,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,55 +2325,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,11 +2390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115815304"/>
-        <c:axId val="2115818280"/>
+        <c:axId val="174722880"/>
+        <c:axId val="174723440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115815304"/>
+        <c:axId val="174722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,10 +2402,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115818280"/>
+        <c:crossAx val="174723440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115818280"/>
+        <c:axId val="174723440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,13 +2426,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115815304"/>
+        <c:crossAx val="174722880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2505,60 +2537,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'23-5, 18.14, kolpetty'!$H$6:$H$22</c:f>
+              <c:f>'23-5, 18.14, kolpetty'!$J$6:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,20 +2605,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115841864"/>
-        <c:axId val="2115844808"/>
+        <c:axId val="174783936"/>
+        <c:axId val="174784496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115841864"/>
+        <c:axId val="174783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115844808"/>
+        <c:crossAx val="174784496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115844808"/>
+        <c:axId val="174784496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,13 +2638,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115841864"/>
+        <c:crossAx val="174783936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2712,49 +2746,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,49 +2861,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,49 +2976,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,11 +3035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115889144"/>
-        <c:axId val="2115892120"/>
+        <c:axId val="174787856"/>
+        <c:axId val="174788416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115889144"/>
+        <c:axId val="174787856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,10 +3047,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115892120"/>
+        <c:crossAx val="174788416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3024,7 +3059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115892120"/>
+        <c:axId val="174788416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,13 +3071,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115889144"/>
+        <c:crossAx val="174787856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3140,54 +3176,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'23-5, 16.28, rajagiriya'!$H$6:$H$20</c:f>
+              <c:f>'23-5, 16.28, rajagiriya'!$J$6:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,20 +3238,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115915960"/>
-        <c:axId val="2115918904"/>
+        <c:axId val="175159728"/>
+        <c:axId val="175160288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115915960"/>
+        <c:axId val="175159728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115918904"/>
+        <c:crossAx val="175160288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3223,7 +3260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115918904"/>
+        <c:axId val="175160288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,13 +3271,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115915960"/>
+        <c:crossAx val="175159728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3341,49 +3379,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,49 +3494,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,49 +3609,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3630,11 +3668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115963016"/>
-        <c:axId val="2115965992"/>
+        <c:axId val="175163648"/>
+        <c:axId val="175164208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115963016"/>
+        <c:axId val="175163648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,10 +3680,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115965992"/>
+        <c:crossAx val="175164208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3653,7 +3692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115965992"/>
+        <c:axId val="175164208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,13 +3704,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115963016"/>
+        <c:crossAx val="175163648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3696,7 +3736,7 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -3720,13 +3760,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3755,13 +3795,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3791,7 +3831,7 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -3826,7 +3866,7 @@
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
@@ -3850,13 +3890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3891,7 +3931,7 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -3915,13 +3955,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3956,7 +3996,7 @@
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3980,13 +4020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -4296,29 +4336,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4340,8 +4382,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1"/>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -4361,13 +4403,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4378,8 +4426,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -4398,14 +4448,18 @@
         <v>11</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>1540</v>
       </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="10">
+        <v>1369323600</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -4427,14 +4481,20 @@
         <v>1544</v>
       </c>
       <c r="G7" s="10">
+        <v>1369323840</v>
+      </c>
+      <c r="H7" s="10">
         <v>1545</v>
       </c>
-      <c r="H7" s="10">
-        <f>G7-F7</f>
+      <c r="I7" s="10">
+        <v>1369323900</v>
+      </c>
+      <c r="J7" s="10">
+        <f>H7-F7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4456,14 +4516,20 @@
         <v>1546</v>
       </c>
       <c r="G8" s="10">
+        <v>1369323960</v>
+      </c>
+      <c r="H8" s="10">
         <v>1546</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" ref="H8:H22" si="2">G8-F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="10">
+        <v>1369323960</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:J22" si="2">H8-F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -4483,12 +4549,14 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f>G9-F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
+        <f>H9-F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -4510,14 +4578,20 @@
         <v>1548</v>
       </c>
       <c r="G10" s="10">
+        <v>1369324080</v>
+      </c>
+      <c r="H10" s="10">
         <v>1549</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
+        <v>1369324140</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -4539,14 +4613,20 @@
         <v>1550</v>
       </c>
       <c r="G11" s="10">
+        <v>1369324200</v>
+      </c>
+      <c r="H11" s="10">
         <v>1551</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
+        <v>1369324260</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -4566,12 +4646,14 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -4593,14 +4675,20 @@
         <v>1552</v>
       </c>
       <c r="G13" s="10">
+        <v>1369324320</v>
+      </c>
+      <c r="H13" s="10">
         <v>1553</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
+        <v>1369324380</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -4620,12 +4708,14 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -4646,8 +4736,10 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -4669,14 +4761,20 @@
         <v>1556</v>
       </c>
       <c r="G16" s="10">
+        <v>1369324560</v>
+      </c>
+      <c r="H16" s="10">
         <v>1556</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
+        <v>1369324560</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -4698,14 +4796,20 @@
         <v>1558</v>
       </c>
       <c r="G17" s="10">
+        <v>1369324680</v>
+      </c>
+      <c r="H17" s="10">
         <v>1558</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
+        <v>1369324680</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -4727,14 +4831,20 @@
         <v>1608</v>
       </c>
       <c r="G18" s="10">
+        <v>1369325280</v>
+      </c>
+      <c r="H18" s="10">
         <v>1609</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
+        <v>1369325340</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -4756,14 +4866,20 @@
         <v>1611</v>
       </c>
       <c r="G19" s="10">
+        <v>1369325460</v>
+      </c>
+      <c r="H19" s="10">
         <v>1611</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
+        <v>1369325460</v>
+      </c>
+      <c r="J19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -4785,14 +4901,20 @@
         <v>1614</v>
       </c>
       <c r="G20" s="10">
+        <v>1369325640</v>
+      </c>
+      <c r="H20" s="10">
         <v>1614</v>
       </c>
-      <c r="H20" s="10">
+      <c r="I20" s="10">
+        <v>1369325640</v>
+      </c>
+      <c r="J20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -4814,14 +4936,20 @@
         <v>1615</v>
       </c>
       <c r="G21" s="10">
+        <v>1369325700</v>
+      </c>
+      <c r="H21" s="10">
         <v>1616</v>
       </c>
-      <c r="H21" s="10">
+      <c r="I21" s="10">
+        <v>1369325760</v>
+      </c>
+      <c r="J21" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -4842,27 +4970,34 @@
       <c r="F22" s="10">
         <v>1618</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
+        <v>1369325880</v>
+      </c>
+      <c r="H22" s="13">
         <v>1624</v>
       </c>
-      <c r="H22" s="10">
+      <c r="I22" s="13">
+        <v>1369326240</v>
+      </c>
+      <c r="J22" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="G23" s="14" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="12">
-        <f>SUM(H7:H22)</f>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12">
+        <f>SUM(J7:J22)</f>
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4873,28 +5008,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4905,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4916,8 +5053,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1"/>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -4937,13 +5074,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4954,8 +5097,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -4974,14 +5119,18 @@
         <v>21</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>1703</v>
       </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="10">
+        <v>1369328580</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5003,14 +5152,20 @@
         <v>1703</v>
       </c>
       <c r="G7" s="10">
+        <v>1369328580</v>
+      </c>
+      <c r="H7" s="10">
         <v>1704</v>
       </c>
-      <c r="H7" s="10">
-        <f>G7-F7</f>
+      <c r="I7" s="10">
+        <v>1369328640</v>
+      </c>
+      <c r="J7" s="10">
+        <f>H7-F7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5032,14 +5187,20 @@
         <v>1705</v>
       </c>
       <c r="G8" s="10">
+        <v>1369328700</v>
+      </c>
+      <c r="H8" s="10">
         <v>1705</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" ref="H8:H22" si="2">G8-F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="10">
+        <v>1369328700</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:J22" si="2">H8-F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -5059,12 +5220,14 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -5086,14 +5249,20 @@
         <v>1708</v>
       </c>
       <c r="G10" s="10">
+        <v>1369328880</v>
+      </c>
+      <c r="H10" s="10">
         <v>1708</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
+        <v>1369328880</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5284,20 @@
         <v>1709</v>
       </c>
       <c r="G11" s="10">
+        <v>1369328940</v>
+      </c>
+      <c r="H11" s="10">
         <v>1709</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
+        <v>1369328940</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -5142,12 +5317,14 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -5169,14 +5346,20 @@
         <v>1711</v>
       </c>
       <c r="G13" s="10">
+        <v>1369329060</v>
+      </c>
+      <c r="H13" s="10">
         <v>1712</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
+        <v>1369329120</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -5196,12 +5379,14 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -5221,12 +5406,14 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -5248,14 +5435,20 @@
         <v>1715</v>
       </c>
       <c r="G16" s="10">
+        <v>1369329300</v>
+      </c>
+      <c r="H16" s="10">
         <v>1716</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
+        <v>1369329360</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5277,14 +5470,20 @@
         <v>1717</v>
       </c>
       <c r="G17" s="10">
+        <v>1369329420</v>
+      </c>
+      <c r="H17" s="10">
         <v>1718</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
+        <v>1369329480</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -5306,14 +5505,20 @@
         <v>1721</v>
       </c>
       <c r="G18" s="10">
+        <v>1369329660</v>
+      </c>
+      <c r="H18" s="10">
         <v>1725</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
+        <v>1369329900</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -5335,14 +5540,20 @@
         <v>1727</v>
       </c>
       <c r="G19" s="10">
+        <v>1369330020</v>
+      </c>
+      <c r="H19" s="10">
         <v>1727</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
+        <v>1369330020</v>
+      </c>
+      <c r="J19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -5364,14 +5575,20 @@
         <v>1729</v>
       </c>
       <c r="G20" s="10">
+        <v>1369330140</v>
+      </c>
+      <c r="H20" s="10">
         <v>1729</v>
       </c>
-      <c r="H20" s="10">
+      <c r="I20" s="10">
+        <v>1369330140</v>
+      </c>
+      <c r="J20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -5393,14 +5610,20 @@
         <v>1731</v>
       </c>
       <c r="G21" s="10">
+        <v>1369330260</v>
+      </c>
+      <c r="H21" s="10">
         <v>1738</v>
       </c>
-      <c r="H21" s="10">
+      <c r="I21" s="10">
+        <v>1369330680</v>
+      </c>
+      <c r="J21" s="10">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -5422,19 +5645,26 @@
         <v>1740</v>
       </c>
       <c r="G22" s="13">
+        <v>1369330800</v>
+      </c>
+      <c r="H22" s="13">
         <v>1743</v>
       </c>
-      <c r="H22" s="10">
+      <c r="I22" s="13">
+        <v>1369330980</v>
+      </c>
+      <c r="J22" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="G23" s="14" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="12">
-        <f>SUM(H7:H22)</f>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12">
+        <f>SUM(J7:J22)</f>
         <v>18</v>
       </c>
     </row>
@@ -5452,28 +5682,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5484,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5495,8 +5727,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1"/>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -5516,13 +5748,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5533,8 +5771,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5553,14 +5793,18 @@
         <v>37</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>1819</v>
       </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="10">
+        <v>1369333140</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5582,14 +5826,20 @@
         <v>1820</v>
       </c>
       <c r="G7" s="10">
+        <v>1369333200</v>
+      </c>
+      <c r="H7" s="10">
         <v>1822</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" ref="H7:H22" si="2">G7-F7</f>
+      <c r="I7" s="10">
+        <v>1369333320</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J22" si="2">H7-F7</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5611,14 +5861,20 @@
         <v>1823</v>
       </c>
       <c r="G8" s="10">
+        <v>1369333380</v>
+      </c>
+      <c r="H8" s="10">
         <v>1824</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
+        <v>1369333440</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -5638,12 +5894,14 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -5665,14 +5923,20 @@
         <v>1826</v>
       </c>
       <c r="G10" s="10">
+        <v>1369333560</v>
+      </c>
+      <c r="H10" s="10">
         <v>1826</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
+        <v>1369333560</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -5694,14 +5958,20 @@
         <v>1828</v>
       </c>
       <c r="G11" s="10">
+        <v>1369333680</v>
+      </c>
+      <c r="H11" s="10">
         <v>1828</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
+        <v>1369333680</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -5721,12 +5991,14 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -5748,14 +6020,20 @@
         <v>1830</v>
       </c>
       <c r="G13" s="10">
+        <v>1369333800</v>
+      </c>
+      <c r="H13" s="10">
         <v>1830</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
+        <v>1369333800</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -5775,12 +6053,14 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -5800,12 +6080,14 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -5827,14 +6109,20 @@
         <v>1835</v>
       </c>
       <c r="G16" s="10">
+        <v>1369334100</v>
+      </c>
+      <c r="H16" s="10">
         <v>1835</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
+        <v>1369334100</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5856,14 +6144,20 @@
         <v>1835</v>
       </c>
       <c r="G17" s="10">
+        <v>1369334100</v>
+      </c>
+      <c r="H17" s="10">
         <v>1835</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
+        <v>1369334100</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -5885,14 +6179,20 @@
         <v>1837</v>
       </c>
       <c r="G18" s="10">
+        <v>1369334220</v>
+      </c>
+      <c r="H18" s="10">
         <v>1838</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
+        <v>1369334280</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -5914,14 +6214,20 @@
         <v>1841</v>
       </c>
       <c r="G19" s="10">
+        <v>1369334460</v>
+      </c>
+      <c r="H19" s="10">
         <v>1841</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
+        <v>1369334460</v>
+      </c>
+      <c r="J19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -5943,14 +6249,20 @@
         <v>1843</v>
       </c>
       <c r="G20" s="10">
+        <v>1369334580</v>
+      </c>
+      <c r="H20" s="10">
         <v>1843</v>
       </c>
-      <c r="H20" s="10">
+      <c r="I20" s="10">
+        <v>1369334580</v>
+      </c>
+      <c r="J20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -5972,14 +6284,20 @@
         <v>1845</v>
       </c>
       <c r="G21" s="10">
+        <v>1369334700</v>
+      </c>
+      <c r="H21" s="10">
         <v>1845</v>
       </c>
-      <c r="H21" s="10">
+      <c r="I21" s="10">
+        <v>1369334700</v>
+      </c>
+      <c r="J21" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -6001,19 +6319,26 @@
         <v>1847</v>
       </c>
       <c r="G22" s="10">
+        <v>1369334820</v>
+      </c>
+      <c r="H22" s="10">
         <v>1853</v>
       </c>
-      <c r="H22" s="10">
+      <c r="I22" s="10">
+        <v>1369335180</v>
+      </c>
+      <c r="J22" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="G23" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="11">
-        <f>SUM(H6:H22)</f>
+      <c r="I23" s="1"/>
+      <c r="J23" s="11">
+        <f>SUM(J6:J22)</f>
         <v>10</v>
       </c>
     </row>
@@ -6031,29 +6356,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6064,7 +6391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6075,8 +6402,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1"/>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -6096,13 +6423,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6113,8 +6446,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -6136,14 +6471,20 @@
         <v>1628</v>
       </c>
       <c r="G6" s="10">
+        <v>1369326480</v>
+      </c>
+      <c r="H6" s="10">
         <v>1633</v>
       </c>
-      <c r="H6" s="10">
-        <f>G6-F6</f>
+      <c r="I6" s="10">
+        <v>1369326780</v>
+      </c>
+      <c r="J6" s="10">
+        <f>H6-F6</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -6165,14 +6506,20 @@
         <v>1634</v>
       </c>
       <c r="G7" s="10">
+        <v>1369326840</v>
+      </c>
+      <c r="H7" s="10">
         <v>1634</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" ref="H7:H19" si="2">G7-F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="10">
+        <v>1369326840</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J19" si="2">H7-F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -6194,14 +6541,20 @@
         <v>1635</v>
       </c>
       <c r="G8" s="10">
+        <v>1369326900</v>
+      </c>
+      <c r="H8" s="10">
         <v>1636</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
+        <v>1369326960</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -6223,14 +6576,20 @@
         <v>1638</v>
       </c>
       <c r="G9" s="10">
+        <v>1369327080</v>
+      </c>
+      <c r="H9" s="10">
         <v>1639</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
+        <v>1369327140</v>
+      </c>
+      <c r="J9" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -6252,14 +6611,20 @@
         <v>1640</v>
       </c>
       <c r="G10" s="10">
+        <v>1369327200</v>
+      </c>
+      <c r="H10" s="10">
         <v>1641</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
+        <v>1369327260</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -6281,14 +6646,20 @@
         <v>1642</v>
       </c>
       <c r="G11" s="10">
+        <v>1369327320</v>
+      </c>
+      <c r="H11" s="10">
         <v>1642</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
+        <v>1369327320</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -6308,12 +6679,14 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -6335,14 +6708,20 @@
         <v>1644</v>
       </c>
       <c r="G13" s="10">
+        <v>1369327440</v>
+      </c>
+      <c r="H13" s="10">
         <v>1644</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
+        <v>1369327440</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6364,14 +6743,20 @@
         <v>1647</v>
       </c>
       <c r="G14" s="10">
+        <v>1369327620</v>
+      </c>
+      <c r="H14" s="10">
         <v>1647</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
+        <v>1369327620</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -6393,14 +6778,20 @@
         <v>1648</v>
       </c>
       <c r="G15" s="10">
+        <v>1369327680</v>
+      </c>
+      <c r="H15" s="10">
         <v>1648</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
+        <v>1369327680</v>
+      </c>
+      <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -6422,14 +6813,20 @@
         <v>1650</v>
       </c>
       <c r="G16" s="10">
+        <v>1369327800</v>
+      </c>
+      <c r="H16" s="10">
         <v>1650</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
+        <v>1369327800</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -6451,14 +6848,20 @@
         <v>1652</v>
       </c>
       <c r="G17" s="10">
+        <v>1369327920</v>
+      </c>
+      <c r="H17" s="10">
         <v>1652</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
+        <v>1369327920</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -6480,14 +6883,20 @@
         <v>1654</v>
       </c>
       <c r="G18" s="10">
+        <v>1369328040</v>
+      </c>
+      <c r="H18" s="10">
         <v>1654</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
+        <v>1369328040</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -6507,12 +6916,14 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -6533,17 +6944,22 @@
       <c r="F20" s="10">
         <v>1655</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="G21" s="1" t="s">
+      <c r="G20" s="10">
+        <v>1369328100</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="11">
-        <f>SUM(H6:H19)</f>
+      <c r="I21" s="1"/>
+      <c r="J21" s="11">
+        <f>SUM(J6:J19)</f>
         <v>8</v>
       </c>
     </row>
@@ -6561,29 +6977,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6594,7 +7012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6605,8 +7023,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1"/>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -6626,13 +7044,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6643,8 +7067,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -6665,15 +7091,21 @@
       <c r="F6" s="10">
         <v>1740</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="13">
+        <v>1369330800</v>
+      </c>
+      <c r="H6" s="10">
         <v>1743</v>
       </c>
-      <c r="H6" s="10">
-        <f>G6-F6</f>
+      <c r="I6" s="13">
+        <v>1369330980</v>
+      </c>
+      <c r="J6" s="10">
+        <f>H6-F6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -6695,14 +7127,20 @@
         <v>1744</v>
       </c>
       <c r="G7" s="10">
+        <v>1369331040</v>
+      </c>
+      <c r="H7" s="10">
         <v>1745</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" ref="H7:H19" si="2">G7-F7</f>
+      <c r="I7" s="10">
+        <v>1369331100</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J19" si="2">H7-F7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -6724,14 +7162,20 @@
         <v>1749</v>
       </c>
       <c r="G8" s="10">
+        <v>1369331340</v>
+      </c>
+      <c r="H8" s="10">
         <v>1749</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
+        <v>1369331340</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -6753,14 +7197,20 @@
         <v>1752</v>
       </c>
       <c r="G9" s="10">
+        <v>1369331520</v>
+      </c>
+      <c r="H9" s="10">
         <v>1752</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
+        <v>1369331520</v>
+      </c>
+      <c r="J9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -6782,14 +7232,20 @@
         <v>1755</v>
       </c>
       <c r="G10" s="10">
+        <v>1369331700</v>
+      </c>
+      <c r="H10" s="10">
         <v>1756</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
+        <v>1369331760</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -6811,14 +7267,20 @@
         <v>1757</v>
       </c>
       <c r="G11" s="10">
+        <v>1369331820</v>
+      </c>
+      <c r="H11" s="10">
         <v>1758</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
+        <v>1369331880</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -6838,12 +7300,14 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -6865,14 +7329,20 @@
         <v>1759</v>
       </c>
       <c r="G13" s="10">
+        <v>1369331940</v>
+      </c>
+      <c r="H13" s="10">
         <v>1759</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
+        <v>1369331940</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6894,14 +7364,20 @@
         <v>1800</v>
       </c>
       <c r="G14" s="10">
+        <v>1369332000</v>
+      </c>
+      <c r="H14" s="10">
         <v>1800</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
+        <v>1369332000</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -6923,14 +7399,20 @@
         <v>1801</v>
       </c>
       <c r="G15" s="10">
+        <v>1369332060</v>
+      </c>
+      <c r="H15" s="10">
         <v>1802</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
+        <v>1369332120</v>
+      </c>
+      <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -6952,14 +7434,20 @@
         <v>1803</v>
       </c>
       <c r="G16" s="10">
+        <v>1369332180</v>
+      </c>
+      <c r="H16" s="10">
         <v>1803</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
+        <v>1369332180</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -6981,14 +7469,20 @@
         <v>1805</v>
       </c>
       <c r="G17" s="10">
+        <v>1369332300</v>
+      </c>
+      <c r="H17" s="10">
         <v>1805</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
+        <v>1369332300</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -7010,14 +7504,20 @@
         <v>1808</v>
       </c>
       <c r="G18" s="10">
+        <v>1369332480</v>
+      </c>
+      <c r="H18" s="10">
         <v>1808</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
+        <v>1369332480</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -7037,12 +7537,14 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -7063,15 +7565,20 @@
       <c r="F20" s="10">
         <v>1809</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10">
+        <v>1369332540</v>
+      </c>
       <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="G21" s="1" t="s">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="10">
-        <f>SUM(H6:H19)</f>
+      <c r="I21" s="1"/>
+      <c r="J21" s="10">
+        <f>SUM(J6:J19)</f>
         <v>7</v>
       </c>
     </row>

--- a/db and notes/main data sheet.xlsx
+++ b/db and notes/main data sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webdev\Gaman\db and notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="23-5, 15.40, kolpetty" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="23-5, 16.28, rajagiriya" sheetId="2" r:id="rId4"/>
     <sheet name="23-5, 17.43, rajagiriya" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -175,10 +170,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,8 +282,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -307,7 +380,69 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="63">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,55 +574,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,55 +701,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,55 +828,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,11 +893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="4072240"/>
-        <c:axId val="4071120"/>
+        <c:axId val="2104857064"/>
+        <c:axId val="2104861224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4072240"/>
+        <c:axId val="2104857064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4071120"/>
+        <c:crossAx val="2104861224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -801,7 +936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4071120"/>
+        <c:axId val="2104861224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4072240"/>
+        <c:crossAx val="2104857064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -947,46 +1082,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,11 +1136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175327856"/>
-        <c:axId val="175328416"/>
+        <c:axId val="2105194568"/>
+        <c:axId val="2105197512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175327856"/>
+        <c:axId val="2105194568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175328416"/>
+        <c:crossAx val="2105197512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175328416"/>
+        <c:axId val="2105197512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,14 +1169,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175327856"/>
+        <c:crossAx val="2105194568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1154,52 +1288,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,11 +1348,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174560096"/>
-        <c:axId val="174560656"/>
+        <c:axId val="2104245896"/>
+        <c:axId val="2104251336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174560096"/>
+        <c:axId val="2104245896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174560656"/>
+        <c:crossAx val="2104251336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174560656"/>
+        <c:axId val="2104251336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174560096"/>
+        <c:crossAx val="2104245896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,55 +1535,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,11 +1598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174562896"/>
-        <c:axId val="174563456"/>
+        <c:axId val="2104935720"/>
+        <c:axId val="2104938664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174562896"/>
+        <c:axId val="2104935720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174563456"/>
+        <c:crossAx val="2104938664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174563456"/>
+        <c:axId val="2104938664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,14 +1631,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174562896"/>
+        <c:crossAx val="2104935720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1608,55 +1741,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,55 +1865,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,55 +1989,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,11 +2054,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174718400"/>
-        <c:axId val="174718960"/>
+        <c:axId val="2104973784"/>
+        <c:axId val="2104976760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174718400"/>
+        <c:axId val="2104973784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174718960"/>
+        <c:crossAx val="2104976760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174718960"/>
+        <c:axId val="2104976760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,14 +2090,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174718400"/>
+        <c:crossAx val="2104973784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2071,55 +2203,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,55 +2330,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,55 +2457,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174722880"/>
-        <c:axId val="174723440"/>
+        <c:axId val="2105019560"/>
+        <c:axId val="2105022536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174722880"/>
+        <c:axId val="2105019560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174723440"/>
+        <c:crossAx val="2105022536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2414,7 +2546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174723440"/>
+        <c:axId val="2105022536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,14 +2558,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174722880"/>
+        <c:crossAx val="2105019560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2542,55 +2673,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,11 +2736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174783936"/>
-        <c:axId val="174784496"/>
+        <c:axId val="2105046104"/>
+        <c:axId val="2105049048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174783936"/>
+        <c:axId val="2105046104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174784496"/>
+        <c:crossAx val="2105049048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174784496"/>
+        <c:axId val="2105049048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,14 +2769,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174783936"/>
+        <c:crossAx val="2105046104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2746,49 +2876,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2861,49 +2991,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,49 +3106,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,11 +3165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174787856"/>
-        <c:axId val="174788416"/>
+        <c:axId val="2105093720"/>
+        <c:axId val="2105096696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174787856"/>
+        <c:axId val="2105093720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174788416"/>
+        <c:crossAx val="2105096696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174788416"/>
+        <c:axId val="2105096696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,14 +3201,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174787856"/>
+        <c:crossAx val="2105093720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3181,49 +3310,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3238,11 +3367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175159728"/>
-        <c:axId val="175160288"/>
+        <c:axId val="2105120264"/>
+        <c:axId val="2105123208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175159728"/>
+        <c:axId val="2105120264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175160288"/>
+        <c:crossAx val="2105123208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3260,7 +3389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175160288"/>
+        <c:axId val="2105123208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,14 +3400,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175159728"/>
+        <c:crossAx val="2105120264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3379,49 +3507,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,49 +3622,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,49 +3737,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,11 +3796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175163648"/>
-        <c:axId val="175164208"/>
+        <c:axId val="2105167400"/>
+        <c:axId val="2105170376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175163648"/>
+        <c:axId val="2105167400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175164208"/>
+        <c:crossAx val="2105170376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3692,7 +3820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175164208"/>
+        <c:axId val="2105170376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,14 +3832,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175163648"/>
+        <c:crossAx val="2105167400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4336,31 +4463,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4382,8 +4509,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1"/>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -4415,7 +4542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4429,7 +4556,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -4459,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -4494,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4529,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -4556,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -4591,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -4626,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -4653,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -4688,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -4715,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4866,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -4774,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -4809,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -4844,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -4879,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -4914,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -4949,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -4984,7 +5111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="H23" s="16" t="s">
         <v>27</v>
       </c>
@@ -4996,8 +5123,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5008,30 +5135,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5053,8 +5180,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1"/>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -5086,7 +5213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5100,7 +5227,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -5130,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5165,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5200,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -5227,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -5262,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -5297,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -5324,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -5359,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -5386,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -5413,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -5448,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5483,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -5518,7 +5645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -5553,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -5588,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -5623,7 +5750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -5658,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="H23" s="14" t="s">
         <v>28</v>
       </c>
@@ -5682,30 +5809,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5716,7 +5843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5727,8 +5854,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1"/>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -5760,7 +5887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5774,7 +5901,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5804,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5839,7 +5966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5874,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -5901,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -5936,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -5971,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -5998,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -6033,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -6060,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -6087,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -6122,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -6157,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -6192,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -6227,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -6262,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -6297,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -6332,7 +6459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="H23" s="1" t="s">
         <v>29</v>
       </c>
@@ -6356,31 +6483,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6402,8 +6529,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1"/>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -6435,7 +6562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6449,7 +6576,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -6484,7 +6611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -6519,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -6554,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -6589,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -6659,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -6686,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -6721,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6756,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -6791,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -6826,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -6861,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -6896,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -6923,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -6953,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
@@ -6977,31 +7104,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7012,7 +7139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7023,8 +7150,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1"/>
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -7056,7 +7183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -7070,7 +7197,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -7105,7 +7232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -7140,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -7175,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -7210,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -7245,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -7280,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -7307,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -7342,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -7377,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -7412,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -7447,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -7482,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -7517,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -7544,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -7572,7 +7699,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="H21" s="1" t="s">
         <v>25</v>
       </c>
